--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>352.3462804555702</v>
+        <v>393.9189659278729</v>
       </c>
       <c r="AB2" t="n">
-        <v>482.0957253401356</v>
+        <v>538.9773076607819</v>
       </c>
       <c r="AC2" t="n">
-        <v>436.0851859392724</v>
+        <v>487.5380698770385</v>
       </c>
       <c r="AD2" t="n">
-        <v>352346.2804555702</v>
+        <v>393918.9659278729</v>
       </c>
       <c r="AE2" t="n">
-        <v>482095.7253401356</v>
+        <v>538977.3076607819</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.417153243959769e-06</v>
+        <v>4.08631748887539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.383246527777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>436085.1859392725</v>
+        <v>487538.0698770385</v>
       </c>
     </row>
     <row r="3">
@@ -4733,28 +4733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.8885815406075</v>
+        <v>216.9614419537574</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.3409580891751</v>
+        <v>296.856216544278</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.067014018995</v>
+        <v>268.5246758776964</v>
       </c>
       <c r="AD3" t="n">
-        <v>185888.5815406075</v>
+        <v>216961.4419537574</v>
       </c>
       <c r="AE3" t="n">
-        <v>254340.9580891751</v>
+        <v>296856.216544278</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.704577481317768e-06</v>
+        <v>6.262772039228927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH3" t="n">
-        <v>230067.014018995</v>
+        <v>268524.6758776964</v>
       </c>
     </row>
     <row r="4">
@@ -4839,28 +4839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.3512696573059</v>
+        <v>183.5093814164763</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.4537284086868</v>
+        <v>251.085631516439</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.5591971360665</v>
+        <v>227.1223712454801</v>
       </c>
       <c r="AD4" t="n">
-        <v>152351.2696573058</v>
+        <v>183509.3814164763</v>
       </c>
       <c r="AE4" t="n">
-        <v>208453.7284086868</v>
+        <v>251085.6315164389</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.18335850163627e-06</v>
+        <v>7.072175109372733e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>188559.1971360665</v>
+        <v>227122.3712454801</v>
       </c>
     </row>
     <row r="5">
@@ -4945,28 +4945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.5441750133651</v>
+        <v>163.4584842770981</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.0352288583737</v>
+        <v>223.6511094672044</v>
       </c>
       <c r="AC5" t="n">
-        <v>176.4213403498485</v>
+        <v>202.3061614760223</v>
       </c>
       <c r="AD5" t="n">
-        <v>142544.1750133651</v>
+        <v>163458.4842770981</v>
       </c>
       <c r="AE5" t="n">
-        <v>195035.2288583737</v>
+        <v>223651.1094672044</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.432459079290281e-06</v>
+        <v>7.493291995321188e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.5703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>176421.3403498486</v>
+        <v>202306.1614760223</v>
       </c>
     </row>
     <row r="6">
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.9056651032628</v>
+        <v>158.6493821664036</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.6886149627601</v>
+        <v>217.071083796744</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.6804383769018</v>
+        <v>196.3541242204245</v>
       </c>
       <c r="AD6" t="n">
-        <v>137905.6651032628</v>
+        <v>158649.3821664036</v>
       </c>
       <c r="AE6" t="n">
-        <v>188688.6149627601</v>
+        <v>217071.083796744</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.561490937730251e-06</v>
+        <v>7.711426754084593e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.442274305555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>170680.4383769018</v>
+        <v>196354.1242204245</v>
       </c>
     </row>
     <row r="7">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.6960348771621</v>
+        <v>154.4397519403028</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.9288131716336</v>
+        <v>211.3112820056175</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.470343984786</v>
+        <v>191.1440298283087</v>
       </c>
       <c r="AD7" t="n">
-        <v>133696.0348771621</v>
+        <v>154439.7519403028</v>
       </c>
       <c r="AE7" t="n">
-        <v>182928.8131716336</v>
+        <v>211311.2820056175</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.675210766659255e-06</v>
+        <v>7.903675767234975e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.333767361111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>165470.343984786</v>
+        <v>191144.0298283087</v>
       </c>
     </row>
     <row r="8">
@@ -5263,28 +5263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>130.8175014678584</v>
+        <v>151.5612185309992</v>
       </c>
       <c r="AB8" t="n">
-        <v>178.9902767690949</v>
+        <v>207.3727456030788</v>
       </c>
       <c r="AC8" t="n">
-        <v>161.9076959687337</v>
+        <v>187.5813818122565</v>
       </c>
       <c r="AD8" t="n">
-        <v>130817.5014678584</v>
+        <v>151561.2185309992</v>
       </c>
       <c r="AE8" t="n">
-        <v>178990.2767690949</v>
+        <v>207372.7456030788</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.749343397340396e-06</v>
+        <v>8.029000657580954e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.266493055555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>161907.6959687338</v>
+        <v>187581.3818122565</v>
       </c>
     </row>
     <row r="9">
@@ -5369,28 +5369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.5110591002982</v>
+        <v>148.254776163439</v>
       </c>
       <c r="AB9" t="n">
-        <v>174.466256451859</v>
+        <v>202.848725285843</v>
       </c>
       <c r="AC9" t="n">
-        <v>157.8154418010711</v>
+        <v>183.4891276445938</v>
       </c>
       <c r="AD9" t="n">
-        <v>127511.0591002982</v>
+        <v>148254.776163439</v>
       </c>
       <c r="AE9" t="n">
-        <v>174466.2564518591</v>
+        <v>202848.725285843</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.8386946914989e-06</v>
+        <v>8.180053453627681e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.188368055555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>157815.4418010711</v>
+        <v>183489.1276445938</v>
       </c>
     </row>
     <row r="10">
@@ -5475,28 +5475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>126.2398353597793</v>
+        <v>146.9835524229201</v>
       </c>
       <c r="AB10" t="n">
-        <v>172.7269120476486</v>
+        <v>201.1093808816326</v>
       </c>
       <c r="AC10" t="n">
-        <v>156.2420979856128</v>
+        <v>181.9157838291355</v>
       </c>
       <c r="AD10" t="n">
-        <v>126239.8353597793</v>
+        <v>146983.5524229201</v>
       </c>
       <c r="AE10" t="n">
-        <v>172726.9120476486</v>
+        <v>201109.3808816326</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.863343324370211e-06</v>
+        <v>8.221723190468158e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>156242.0979856128</v>
+        <v>181915.7838291355</v>
       </c>
     </row>
     <row r="11">
@@ -5581,28 +5581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>124.5123786424356</v>
+        <v>145.2560957055764</v>
       </c>
       <c r="AB11" t="n">
-        <v>170.3633295569685</v>
+        <v>198.7457983909524</v>
       </c>
       <c r="AC11" t="n">
-        <v>154.1040924905335</v>
+        <v>179.7777783340562</v>
       </c>
       <c r="AD11" t="n">
-        <v>124512.3786424356</v>
+        <v>145256.0957055764</v>
       </c>
       <c r="AE11" t="n">
-        <v>170363.3295569685</v>
+        <v>198745.7983909524</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.903210620718885e-06</v>
+        <v>8.289120833009383e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.131944444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>154104.0924905335</v>
+        <v>179777.7783340562</v>
       </c>
     </row>
     <row r="12">
@@ -5687,28 +5687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>123.0687830096584</v>
+        <v>143.8125000727992</v>
       </c>
       <c r="AB12" t="n">
-        <v>168.3881383252591</v>
+        <v>196.770607159243</v>
       </c>
       <c r="AC12" t="n">
-        <v>152.3174107377795</v>
+        <v>177.9910965813023</v>
       </c>
       <c r="AD12" t="n">
-        <v>123068.7830096584</v>
+        <v>143812.5000727992</v>
       </c>
       <c r="AE12" t="n">
-        <v>168388.1383252591</v>
+        <v>196770.607159243</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.923844514145248e-06</v>
+        <v>8.324003453622056e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>152317.4107377795</v>
+        <v>177991.0965813023</v>
       </c>
     </row>
     <row r="13">
@@ -5793,28 +5793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>121.3775587680131</v>
+        <v>142.1212758311539</v>
       </c>
       <c r="AB13" t="n">
-        <v>166.0741307062934</v>
+        <v>194.4565995402774</v>
       </c>
       <c r="AC13" t="n">
-        <v>150.2242487582371</v>
+        <v>175.8979346017599</v>
       </c>
       <c r="AD13" t="n">
-        <v>121377.5587680131</v>
+        <v>142121.2758311539</v>
       </c>
       <c r="AE13" t="n">
-        <v>166074.1307062934</v>
+        <v>194456.5995402774</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.953348180763939e-06</v>
+        <v>8.373880865900808e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.090711805555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>150224.2487582371</v>
+        <v>175897.9346017599</v>
       </c>
     </row>
     <row r="14">
@@ -5899,28 +5899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>119.6388310754558</v>
+        <v>140.3825481385966</v>
       </c>
       <c r="AB14" t="n">
-        <v>163.6951267700857</v>
+        <v>192.0775956040696</v>
       </c>
       <c r="AC14" t="n">
-        <v>148.0722936187473</v>
+        <v>173.74597946227</v>
       </c>
       <c r="AD14" t="n">
-        <v>119638.8310754558</v>
+        <v>140382.5481385966</v>
       </c>
       <c r="AE14" t="n">
-        <v>163695.1267700857</v>
+        <v>192077.5956040696</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.982758481349026e-06</v>
+        <v>8.423600438267288e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.066840277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>148072.2936187473</v>
+        <v>173745.97946227</v>
       </c>
     </row>
     <row r="15">
@@ -6005,28 +6005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>117.9433634648198</v>
+        <v>138.6870805279605</v>
       </c>
       <c r="AB15" t="n">
-        <v>161.3753131864627</v>
+        <v>189.7577820204466</v>
       </c>
       <c r="AC15" t="n">
-        <v>145.9738797876657</v>
+        <v>171.6475656311885</v>
       </c>
       <c r="AD15" t="n">
-        <v>117943.3634648198</v>
+        <v>138687.0805279606</v>
       </c>
       <c r="AE15" t="n">
-        <v>161375.3131864627</v>
+        <v>189757.7820204466</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.006006623716286e-06</v>
+        <v>8.462902576423644e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.047309027777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>145973.8797876657</v>
+        <v>171647.5656311885</v>
       </c>
     </row>
     <row r="16">
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>117.6303357659942</v>
+        <v>138.374052829135</v>
       </c>
       <c r="AB16" t="n">
-        <v>160.9470148791223</v>
+        <v>189.3294837131062</v>
       </c>
       <c r="AC16" t="n">
-        <v>145.5864576696573</v>
+        <v>171.26014351318</v>
       </c>
       <c r="AD16" t="n">
-        <v>117630.3357659942</v>
+        <v>138374.052829135</v>
       </c>
       <c r="AE16" t="n">
-        <v>160947.0148791223</v>
+        <v>189329.4837131062</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.997697046725579e-06</v>
+        <v>8.448854824231212e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH16" t="n">
-        <v>145586.4576696573</v>
+        <v>171260.14351318</v>
       </c>
     </row>
     <row r="17">
@@ -6217,28 +6217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>116.7329049442596</v>
+        <v>137.4766220074004</v>
       </c>
       <c r="AB17" t="n">
-        <v>159.7191104369721</v>
+        <v>188.101579270956</v>
       </c>
       <c r="AC17" t="n">
-        <v>144.4757427040908</v>
+        <v>170.1494285476136</v>
       </c>
       <c r="AD17" t="n">
-        <v>116732.9049442596</v>
+        <v>137476.6220074004</v>
       </c>
       <c r="AE17" t="n">
-        <v>159719.1104369721</v>
+        <v>188101.579270956</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.021598751328062e-06</v>
+        <v>8.489261841773493e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.034288194444445</v>
       </c>
       <c r="AH17" t="n">
-        <v>144475.7427040908</v>
+        <v>170149.4285476136</v>
       </c>
     </row>
   </sheetData>
@@ -6514,28 +6514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.7481514076998</v>
+        <v>289.0199444478313</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.0306359188143</v>
+        <v>395.4498386535763</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.2424489118401</v>
+        <v>357.7086610698126</v>
       </c>
       <c r="AD2" t="n">
-        <v>258748.1514076998</v>
+        <v>289019.9444478313</v>
       </c>
       <c r="AE2" t="n">
-        <v>354030.6359188143</v>
+        <v>395449.8386535763</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.949442269247874e-06</v>
+        <v>5.107817598974001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.107204861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>320242.4489118401</v>
+        <v>357708.6610698127</v>
       </c>
     </row>
     <row r="3">
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.3977218233448</v>
+        <v>178.5789470196158</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.7267510129003</v>
+        <v>244.3395936592437</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.0426540741967</v>
+        <v>221.0201657732499</v>
       </c>
       <c r="AD3" t="n">
-        <v>158397.7218233448</v>
+        <v>178578.9470196158</v>
       </c>
       <c r="AE3" t="n">
-        <v>216726.7510129003</v>
+        <v>244339.5936592437</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.145078574419287e-06</v>
+        <v>7.178409800490167e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.056423611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>196042.6540741967</v>
+        <v>221020.1657732499</v>
       </c>
     </row>
     <row r="4">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.2031529603809</v>
+        <v>152.4696295026725</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.8861862717927</v>
+        <v>208.6156735707852</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.6226625294204</v>
+        <v>188.7056864791857</v>
       </c>
       <c r="AD4" t="n">
-        <v>132203.1529603809</v>
+        <v>152469.6295026725</v>
       </c>
       <c r="AE4" t="n">
-        <v>180886.1862717927</v>
+        <v>208615.6735707852</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.579908095857343e-06</v>
+        <v>7.93144365550477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.576822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>163622.6625294204</v>
+        <v>188705.6864791857</v>
       </c>
     </row>
     <row r="5">
@@ -6832,28 +6832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.8252184240755</v>
+        <v>143.9211027657749</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.4231266308393</v>
+        <v>196.919202154985</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.2536212120907</v>
+        <v>178.1255098792051</v>
       </c>
       <c r="AD5" t="n">
-        <v>123825.2184240755</v>
+        <v>143921.1027657749</v>
       </c>
       <c r="AE5" t="n">
-        <v>169423.1266308393</v>
+        <v>196919.202154985</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.836923057329283e-06</v>
+        <v>8.376539854570489e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.333767361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>153253.6212120907</v>
+        <v>178125.5098792051</v>
       </c>
     </row>
     <row r="6">
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.3567369071989</v>
+        <v>141.4526212488983</v>
       </c>
       <c r="AB6" t="n">
-        <v>166.0456413177318</v>
+        <v>193.5417168418775</v>
       </c>
       <c r="AC6" t="n">
-        <v>150.1984783569347</v>
+        <v>175.070367024049</v>
       </c>
       <c r="AD6" t="n">
-        <v>121356.7369071989</v>
+        <v>141452.6212488983</v>
       </c>
       <c r="AE6" t="n">
-        <v>166045.6413177318</v>
+        <v>193541.7168418775</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.911390751915853e-06</v>
+        <v>8.505502338403509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.268663194444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>150198.4783569347</v>
+        <v>175070.367024049</v>
       </c>
     </row>
     <row r="7">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.5073131816898</v>
+        <v>137.6031975233892</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.7786899519038</v>
+        <v>188.2747654760495</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.434197437247</v>
+        <v>170.3060861043613</v>
       </c>
       <c r="AD7" t="n">
-        <v>117507.3131816898</v>
+        <v>137603.1975233892</v>
       </c>
       <c r="AE7" t="n">
-        <v>160778.6899519038</v>
+        <v>188274.7654760495</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.025941576532809e-06</v>
+        <v>8.703880426374925e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.171006944444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>145434.197437247</v>
+        <v>170306.0861043613</v>
       </c>
     </row>
     <row r="8">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.7985767137262</v>
+        <v>134.8944610554256</v>
       </c>
       <c r="AB8" t="n">
-        <v>157.0724772154188</v>
+        <v>184.5685527395645</v>
       </c>
       <c r="AC8" t="n">
-        <v>142.0817004426287</v>
+        <v>166.953589109743</v>
       </c>
       <c r="AD8" t="n">
-        <v>114798.5767137262</v>
+        <v>134894.4610554256</v>
       </c>
       <c r="AE8" t="n">
-        <v>157072.4772154188</v>
+        <v>184568.5527395645</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.100602442830369e-06</v>
+        <v>8.83317744323994e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.110243055555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>142081.7004426287</v>
+        <v>166953.589109743</v>
       </c>
     </row>
     <row r="9">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>113.1061665726769</v>
+        <v>133.2020509143763</v>
       </c>
       <c r="AB9" t="n">
-        <v>154.7568469965704</v>
+        <v>182.2529225207161</v>
       </c>
       <c r="AC9" t="n">
-        <v>139.987070721859</v>
+        <v>164.8589593889734</v>
       </c>
       <c r="AD9" t="n">
-        <v>113106.1665726769</v>
+        <v>133202.0509143763</v>
       </c>
       <c r="AE9" t="n">
-        <v>154756.8469965704</v>
+        <v>182252.9225207161</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.130833815600275e-06</v>
+        <v>8.885531862746729e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.084201388888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>139987.070721859</v>
+        <v>164858.9593889734</v>
       </c>
     </row>
     <row r="10">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>110.8587348085051</v>
+        <v>130.9546191502045</v>
       </c>
       <c r="AB10" t="n">
-        <v>151.6818117071403</v>
+        <v>179.177887231286</v>
       </c>
       <c r="AC10" t="n">
-        <v>137.205512484612</v>
+        <v>162.0774011517263</v>
       </c>
       <c r="AD10" t="n">
-        <v>110858.7348085051</v>
+        <v>130954.6191502045</v>
       </c>
       <c r="AE10" t="n">
-        <v>151681.8117071403</v>
+        <v>179177.887231286</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.177291612093323e-06</v>
+        <v>8.96598705694087e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.049479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>137205.512484612</v>
+        <v>162077.4011517263</v>
       </c>
     </row>
     <row r="11">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>109.3085190808198</v>
+        <v>129.4044034225193</v>
       </c>
       <c r="AB11" t="n">
-        <v>149.5607381578313</v>
+        <v>177.0568136819769</v>
       </c>
       <c r="AC11" t="n">
-        <v>135.2868712179029</v>
+        <v>160.1587598850173</v>
       </c>
       <c r="AD11" t="n">
-        <v>109308.5190808198</v>
+        <v>129404.4034225193</v>
       </c>
       <c r="AE11" t="n">
-        <v>149560.7381578312</v>
+        <v>177056.8136819769</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.193518035816468e-06</v>
+        <v>8.994087831628222e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>135286.8712179029</v>
+        <v>160158.7598850173</v>
       </c>
     </row>
     <row r="12">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>108.019850978455</v>
+        <v>128.1157353201544</v>
       </c>
       <c r="AB12" t="n">
-        <v>147.7975256081523</v>
+        <v>175.293601132298</v>
       </c>
       <c r="AC12" t="n">
-        <v>133.6919371992805</v>
+        <v>158.5638258663948</v>
       </c>
       <c r="AD12" t="n">
-        <v>108019.850978455</v>
+        <v>128115.7353201544</v>
       </c>
       <c r="AE12" t="n">
-        <v>147797.5256081523</v>
+        <v>175293.601132298</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.204625409198381e-06</v>
+        <v>9.013323480967778e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>133691.9371992805</v>
+        <v>158563.8258663948</v>
       </c>
     </row>
     <row r="13">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>107.6931045025666</v>
+        <v>127.788988844266</v>
       </c>
       <c r="AB13" t="n">
-        <v>147.3504566648048</v>
+        <v>174.8465321889505</v>
       </c>
       <c r="AC13" t="n">
-        <v>133.2875358884207</v>
+        <v>158.1594245555351</v>
       </c>
       <c r="AD13" t="n">
-        <v>107693.1045025666</v>
+        <v>127788.988844266</v>
       </c>
       <c r="AE13" t="n">
-        <v>147350.4566648048</v>
+        <v>174846.5321889505</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.233697751702347e-06</v>
+        <v>9.063670702282615e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH13" t="n">
-        <v>133287.5358884207</v>
+        <v>158159.424555535</v>
       </c>
     </row>
   </sheetData>
@@ -7977,28 +7977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.2224539384884</v>
+        <v>140.4532746724699</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.2301535526814</v>
+        <v>192.1743667679495</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.2699424066545</v>
+        <v>173.8335149220884</v>
       </c>
       <c r="AD2" t="n">
-        <v>122222.4539384884</v>
+        <v>140453.2746724699</v>
       </c>
       <c r="AE2" t="n">
-        <v>167230.1535526814</v>
+        <v>192174.3667679495</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.659576530426476e-06</v>
+        <v>8.816921488533678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.01953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>151269.9424066544</v>
+        <v>173833.5149220884</v>
       </c>
     </row>
     <row r="3">
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.78247678752584</v>
+        <v>111.9279566669357</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.3173221315132</v>
+        <v>153.1447682245836</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.0708970018082</v>
+        <v>138.5288464853034</v>
       </c>
       <c r="AD3" t="n">
-        <v>93782.47678752584</v>
+        <v>111927.9566669357</v>
       </c>
       <c r="AE3" t="n">
-        <v>128317.3221315132</v>
+        <v>153144.7682245836</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.484492077539495e-06</v>
+        <v>1.037783921701674e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.264322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>116070.8970018082</v>
+        <v>138528.8464853034</v>
       </c>
     </row>
     <row r="4">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.201043669624</v>
+        <v>105.3465235490339</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.3123149872673</v>
+        <v>144.1397610803377</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.9253151007994</v>
+        <v>130.3832645842945</v>
       </c>
       <c r="AD4" t="n">
-        <v>87201.04366962399</v>
+        <v>105346.5235490339</v>
       </c>
       <c r="AE4" t="n">
-        <v>119312.3149872673</v>
+        <v>144139.7610803377</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.762876825147665e-06</v>
+        <v>1.090460306502716e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.058159722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>107925.3151007994</v>
+        <v>130383.2645842945</v>
       </c>
     </row>
     <row r="5">
@@ -8295,28 +8295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.62630066227837</v>
+        <v>104.7717805416883</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.5259262487454</v>
+        <v>143.3533723418159</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.2139781997783</v>
+        <v>129.6719276832735</v>
       </c>
       <c r="AD5" t="n">
-        <v>86626.30066227837</v>
+        <v>104771.7805416883</v>
       </c>
       <c r="AE5" t="n">
-        <v>118525.9262487454</v>
+        <v>143353.3723418159</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.790036312719193e-06</v>
+        <v>1.095599465995501e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.038628472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>107213.9781997783</v>
+        <v>129671.9276832734</v>
       </c>
     </row>
   </sheetData>
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.2860790907112</v>
+        <v>182.7759714276282</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.1010200332387</v>
+        <v>250.0821476139324</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.9538349634691</v>
+        <v>226.21465843823</v>
       </c>
       <c r="AD2" t="n">
-        <v>154286.0790907112</v>
+        <v>182775.9714276282</v>
       </c>
       <c r="AE2" t="n">
-        <v>211101.0200332387</v>
+        <v>250082.1476139323</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.977299855506013e-06</v>
+        <v>7.245776567510549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>190953.8349634691</v>
+        <v>226214.65843823</v>
       </c>
     </row>
     <row r="3">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.891713816835</v>
+        <v>130.9703162293513</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.0951791581541</v>
+        <v>179.1993646674809</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.4839901297752</v>
+        <v>162.0968288115546</v>
       </c>
       <c r="AD3" t="n">
-        <v>111891.713816835</v>
+        <v>130970.3162293513</v>
       </c>
       <c r="AE3" t="n">
-        <v>153095.1791581541</v>
+        <v>179199.3646674809</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.956184750598019e-06</v>
+        <v>9.029092257256374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.513888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>138483.9901297752</v>
+        <v>162096.8288115546</v>
       </c>
     </row>
     <row r="4">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.0934019491005</v>
+        <v>122.0014121610246</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.0569407066008</v>
+        <v>166.9277144410806</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.5946642602605</v>
+        <v>150.9963676593888</v>
       </c>
       <c r="AD4" t="n">
-        <v>103093.4019491005</v>
+        <v>122001.4121610246</v>
       </c>
       <c r="AE4" t="n">
-        <v>141056.9407066008</v>
+        <v>166927.7144410806</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.301073098405345e-06</v>
+        <v>9.657403925910237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.220920138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>127594.6642602605</v>
+        <v>150996.3676593888</v>
       </c>
     </row>
     <row r="5">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.63894769823393</v>
+        <v>117.546957910158</v>
       </c>
       <c r="AB5" t="n">
-        <v>134.9621598839161</v>
+        <v>160.8329336183959</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.0815607652123</v>
+        <v>145.4832641643406</v>
       </c>
       <c r="AD5" t="n">
-        <v>98638.94769823394</v>
+        <v>117546.957910158</v>
       </c>
       <c r="AE5" t="n">
-        <v>134962.1598839161</v>
+        <v>160832.9336183959</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.455319127798398e-06</v>
+        <v>9.938406693116869e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.1015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>122081.5607652123</v>
+        <v>145483.2641643406</v>
       </c>
     </row>
     <row r="6">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.82733511178949</v>
+        <v>113.1465457395633</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.064502217809</v>
+        <v>154.8120955541074</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.9874690237233</v>
+        <v>140.0370464346066</v>
       </c>
       <c r="AD6" t="n">
-        <v>84827.33511178949</v>
+        <v>113146.5457395633</v>
       </c>
       <c r="AE6" t="n">
-        <v>116064.502217809</v>
+        <v>154812.0955541074</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.598532854287e-06</v>
+        <v>1.019931100036955e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.997395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>104987.4690237233</v>
+        <v>140037.0464346066</v>
       </c>
     </row>
     <row r="7">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>94.28702907096769</v>
+        <v>113.1950392828918</v>
       </c>
       <c r="AB7" t="n">
-        <v>129.0076728249937</v>
+        <v>154.8784465594736</v>
       </c>
       <c r="AC7" t="n">
-        <v>116.6953615940165</v>
+        <v>140.0970649931449</v>
       </c>
       <c r="AD7" t="n">
-        <v>94287.02907096769</v>
+        <v>113195.0392828918</v>
       </c>
       <c r="AE7" t="n">
-        <v>129007.6728249937</v>
+        <v>154878.4465594736</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.578942783709005e-06</v>
+        <v>1.016362214624571e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>116695.3615940165</v>
+        <v>140097.0649931449</v>
       </c>
     </row>
   </sheetData>
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.28832031034221</v>
+        <v>119.6109293569722</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.6411954387857</v>
+        <v>163.6569504079195</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.4592988916847</v>
+        <v>148.0377607550053</v>
       </c>
       <c r="AD2" t="n">
-        <v>93288.32031034221</v>
+        <v>119610.9293569722</v>
       </c>
       <c r="AE2" t="n">
-        <v>127641.1954387857</v>
+        <v>163656.9504079195</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.239303116744682e-06</v>
+        <v>1.02673460029051e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115459.2988916847</v>
+        <v>148037.7607550054</v>
       </c>
     </row>
     <row r="3">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.15882994343346</v>
+        <v>99.6788785315473</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.4133357203268</v>
+        <v>136.3850391285651</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.6847647323152</v>
+        <v>123.368642411776</v>
       </c>
       <c r="AD3" t="n">
-        <v>82158.82994343346</v>
+        <v>99678.87853154729</v>
       </c>
       <c r="AE3" t="n">
-        <v>112413.3357203268</v>
+        <v>136385.0391285651</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.797742735806771e-06</v>
+        <v>1.136170772676037e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.190538194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>101684.7647323152</v>
+        <v>123368.642411776</v>
       </c>
     </row>
     <row r="4">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.15942201862161</v>
+        <v>98.67947060673542</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.045901706834</v>
+        <v>135.0176051150723</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.4478367018641</v>
+        <v>122.1317143813249</v>
       </c>
       <c r="AD4" t="n">
-        <v>81159.42201862161</v>
+        <v>98679.47060673543</v>
       </c>
       <c r="AE4" t="n">
-        <v>111045.901706834</v>
+        <v>135017.6051150723</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.884603658715607e-06</v>
+        <v>1.15319271490317e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.127604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>100447.8367018641</v>
+        <v>122131.7143813249</v>
       </c>
     </row>
   </sheetData>
@@ -9928,28 +9928,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.2291913706838</v>
+        <v>316.761425130156</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.948966005223</v>
+        <v>433.4069563908845</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.8780471443891</v>
+        <v>392.0432047634215</v>
       </c>
       <c r="AD2" t="n">
-        <v>276229.1913706838</v>
+        <v>316761.425130156</v>
       </c>
       <c r="AE2" t="n">
-        <v>377948.966005223</v>
+        <v>433406.9563908845</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.812584519831674e-06</v>
+        <v>4.838998810283224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.384982638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>341878.0471443891</v>
+        <v>392043.2047634215</v>
       </c>
     </row>
     <row r="3">
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.1564285749629</v>
+        <v>185.5079310635459</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.9743117635576</v>
+        <v>253.8201353133459</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.4076406058472</v>
+        <v>229.5958978379113</v>
       </c>
       <c r="AD3" t="n">
-        <v>165156.4285749629</v>
+        <v>185507.9310635459</v>
       </c>
       <c r="AE3" t="n">
-        <v>225974.3117635576</v>
+        <v>253820.1353133459</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.024568769426985e-06</v>
+        <v>6.924194935242595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.160590277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>204407.6406058472</v>
+        <v>229595.8978379113</v>
       </c>
     </row>
     <row r="4">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.7001109740355</v>
+        <v>168.1418895895117</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.4073667347433</v>
+        <v>230.0591512329056</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.4260320850325</v>
+        <v>208.1026287293501</v>
       </c>
       <c r="AD4" t="n">
-        <v>137700.1109740355</v>
+        <v>168141.8895895117</v>
       </c>
       <c r="AE4" t="n">
-        <v>188407.3667347433</v>
+        <v>230059.1512329056</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.458459513655033e-06</v>
+        <v>7.670695806703725e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.659288194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>170426.0320850325</v>
+        <v>208102.6287293501</v>
       </c>
     </row>
     <row r="5">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.0262978328688</v>
+        <v>147.2924594668801</v>
       </c>
       <c r="AB5" t="n">
-        <v>173.8029846996047</v>
+        <v>201.5320411271954</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.215471773944</v>
+        <v>182.2981059740693</v>
       </c>
       <c r="AD5" t="n">
-        <v>127026.2978328688</v>
+        <v>147292.4594668801</v>
       </c>
       <c r="AE5" t="n">
-        <v>173802.9846996047</v>
+        <v>201532.0411271954</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.772606750045163e-06</v>
+        <v>8.211180223234817e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.353298611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>157215.471773944</v>
+        <v>182298.1059740693</v>
       </c>
     </row>
     <row r="6">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.3407068664969</v>
+        <v>145.6068685005082</v>
       </c>
       <c r="AB6" t="n">
-        <v>171.4966847763906</v>
+        <v>199.2257412039813</v>
       </c>
       <c r="AC6" t="n">
-        <v>155.1292818784884</v>
+        <v>180.2119160786138</v>
       </c>
       <c r="AD6" t="n">
-        <v>125340.7068664969</v>
+        <v>145606.8685005082</v>
       </c>
       <c r="AE6" t="n">
-        <v>171496.6847763906</v>
+        <v>199225.7412039813</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.823528849301576e-06</v>
+        <v>8.298790738041196e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>155129.2818784884</v>
+        <v>180211.9160786138</v>
       </c>
     </row>
     <row r="7">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>122.1594904464159</v>
+        <v>142.4256520804273</v>
       </c>
       <c r="AB7" t="n">
-        <v>167.1440041250747</v>
+        <v>194.8730605526654</v>
       </c>
       <c r="AC7" t="n">
-        <v>151.192014959507</v>
+        <v>176.2746491596324</v>
       </c>
       <c r="AD7" t="n">
-        <v>122159.4904464159</v>
+        <v>142425.6520804272</v>
       </c>
       <c r="AE7" t="n">
-        <v>167144.0041250747</v>
+        <v>194873.0605526654</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.913503987085465e-06</v>
+        <v>8.453591271721641e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.227430555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>151192.014959507</v>
+        <v>176274.6491596324</v>
       </c>
     </row>
     <row r="8">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.15741812058</v>
+        <v>139.4235797545913</v>
       </c>
       <c r="AB8" t="n">
-        <v>163.0364363267843</v>
+        <v>190.7654927543749</v>
       </c>
       <c r="AC8" t="n">
-        <v>147.4764676668765</v>
+        <v>172.5591018670019</v>
       </c>
       <c r="AD8" t="n">
-        <v>119157.41812058</v>
+        <v>139423.5797545913</v>
       </c>
       <c r="AE8" t="n">
-        <v>163036.4363267843</v>
+        <v>190765.4927543749</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.994481611090964e-06</v>
+        <v>8.592911752034044e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.157986111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>147476.4676668765</v>
+        <v>172559.1018670019</v>
       </c>
     </row>
     <row r="9">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.1177971241156</v>
+        <v>137.3839587581269</v>
       </c>
       <c r="AB9" t="n">
-        <v>160.2457368976953</v>
+        <v>187.974793325286</v>
       </c>
       <c r="AC9" t="n">
-        <v>144.9521086745277</v>
+        <v>170.034742874653</v>
       </c>
       <c r="AD9" t="n">
-        <v>117117.7971241156</v>
+        <v>137383.9587581269</v>
       </c>
       <c r="AE9" t="n">
-        <v>160245.7368976953</v>
+        <v>187974.793325286</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.040522080531443e-06</v>
+        <v>8.672123514481165e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.12109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>144952.1086745277</v>
+        <v>170034.742874653</v>
       </c>
     </row>
     <row r="10">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.2092333541086</v>
+        <v>135.4753949881199</v>
       </c>
       <c r="AB10" t="n">
-        <v>157.6343557476821</v>
+        <v>185.3634121752728</v>
       </c>
       <c r="AC10" t="n">
-        <v>142.5899540763744</v>
+        <v>167.6725882764998</v>
       </c>
       <c r="AD10" t="n">
-        <v>115209.2333541086</v>
+        <v>135475.39498812</v>
       </c>
       <c r="AE10" t="n">
-        <v>157634.3557476821</v>
+        <v>185363.4121752728</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.084935340033277e-06</v>
+        <v>8.748535692808536e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.084201388888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>142589.9540763744</v>
+        <v>167672.5882764998</v>
       </c>
     </row>
     <row r="11">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>112.7262488136846</v>
+        <v>132.9924104476959</v>
       </c>
       <c r="AB11" t="n">
-        <v>154.2370267579288</v>
+        <v>181.9660831855195</v>
       </c>
       <c r="AC11" t="n">
-        <v>139.5168613972209</v>
+        <v>164.5994955973463</v>
       </c>
       <c r="AD11" t="n">
-        <v>112726.2488136847</v>
+        <v>132992.4104476959</v>
       </c>
       <c r="AE11" t="n">
-        <v>154237.0267579288</v>
+        <v>181966.0831855195</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.1402604779472e-06</v>
+        <v>8.843721552880128e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.040798611111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>139516.8613972209</v>
+        <v>164599.4955973463</v>
       </c>
     </row>
     <row r="12">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>110.8467694791757</v>
+        <v>131.1129311131871</v>
       </c>
       <c r="AB12" t="n">
-        <v>151.6654402156788</v>
+        <v>179.3944966432695</v>
       </c>
       <c r="AC12" t="n">
-        <v>137.1907034653181</v>
+        <v>162.2733376654434</v>
       </c>
       <c r="AD12" t="n">
-        <v>110846.7694791758</v>
+        <v>131112.9311131871</v>
       </c>
       <c r="AE12" t="n">
-        <v>151665.4402156788</v>
+        <v>179394.4966432695</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.143227743129435e-06</v>
+        <v>8.848826676863207e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.038628472222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>137190.703465318</v>
+        <v>162273.3376654434</v>
       </c>
     </row>
     <row r="13">
@@ -11094,28 +11094,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>110.4652675632691</v>
+        <v>130.7314291972804</v>
       </c>
       <c r="AB13" t="n">
-        <v>151.1434524636589</v>
+        <v>178.8725088912496</v>
       </c>
       <c r="AC13" t="n">
-        <v>136.7185334917363</v>
+        <v>161.8011676918617</v>
       </c>
       <c r="AD13" t="n">
-        <v>110465.2675632691</v>
+        <v>130731.4291972804</v>
       </c>
       <c r="AE13" t="n">
-        <v>151143.4524636589</v>
+        <v>178872.5088912496</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.160074151905993e-06</v>
+        <v>8.877810606573588e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.025607638888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>136718.5334917363</v>
+        <v>161801.1676918617</v>
       </c>
     </row>
     <row r="14">
@@ -11200,28 +11200,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>110.7688087542867</v>
+        <v>131.034970388298</v>
       </c>
       <c r="AB14" t="n">
-        <v>151.5587709125012</v>
+        <v>179.2878273400918</v>
       </c>
       <c r="AC14" t="n">
-        <v>137.0942145307243</v>
+        <v>162.1768487308497</v>
       </c>
       <c r="AD14" t="n">
-        <v>110768.8087542867</v>
+        <v>131034.970388298</v>
       </c>
       <c r="AE14" t="n">
-        <v>151558.7709125011</v>
+        <v>179287.8273400918</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.156724013797018e-06</v>
+        <v>8.872046756915274e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>137094.2145307243</v>
+        <v>162176.8487308497</v>
       </c>
     </row>
   </sheetData>
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.91682149330197</v>
+        <v>100.0665211131237</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.4504531990834</v>
+        <v>136.9154288102614</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.6229011745032</v>
+        <v>123.848412446658</v>
       </c>
       <c r="AD2" t="n">
-        <v>82916.82149330196</v>
+        <v>100066.5211131237</v>
       </c>
       <c r="AE2" t="n">
-        <v>113450.4531990834</v>
+        <v>136915.4288102614</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.607749353920576e-06</v>
+        <v>1.124163293174321e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.43359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>102622.9011745032</v>
+        <v>123848.412446658</v>
       </c>
     </row>
     <row r="3">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.04905365436537</v>
+        <v>94.19875327418713</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.4219143742073</v>
+        <v>128.8868899853853</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.36059482694571</v>
+        <v>116.5861060991005</v>
       </c>
       <c r="AD3" t="n">
-        <v>77049.05365436537</v>
+        <v>94198.75327418713</v>
       </c>
       <c r="AE3" t="n">
-        <v>105421.9143742073</v>
+        <v>128886.8899853853</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.975803009886316e-06</v>
+        <v>1.197945551232275e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.16015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>95360.59482694571</v>
+        <v>116586.1060991005</v>
       </c>
     </row>
   </sheetData>
@@ -11900,28 +11900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.707869667495</v>
+        <v>231.065373554419</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.9856060021089</v>
+        <v>316.1538379818415</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.6459271135793</v>
+        <v>285.9805594096468</v>
       </c>
       <c r="AD2" t="n">
-        <v>201707.869667495</v>
+        <v>231065.3735544189</v>
       </c>
       <c r="AE2" t="n">
-        <v>275985.6060021089</v>
+        <v>316153.8379818415</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.422662518862233e-06</v>
+        <v>6.061789648346098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.30859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>249645.9271135793</v>
+        <v>285980.5594096468</v>
       </c>
     </row>
     <row r="3">
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.0281028109582</v>
+        <v>159.385517189331</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.9101867009137</v>
+        <v>218.078296211098</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.9306881807435</v>
+        <v>197.2652096955844</v>
       </c>
       <c r="AD3" t="n">
-        <v>130028.1028109582</v>
+        <v>159385.517189331</v>
       </c>
       <c r="AE3" t="n">
-        <v>177910.1867009137</v>
+        <v>218078.296211098</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.511736735482233e-06</v>
+        <v>7.990621011708887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.787326388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>160930.6881807435</v>
+        <v>197265.2096955844</v>
       </c>
     </row>
     <row r="4">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.5442897935536</v>
+        <v>137.0875419361626</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.8292829835487</v>
+        <v>187.5692227524874</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.4799619409595</v>
+        <v>169.6678793881003</v>
       </c>
       <c r="AD4" t="n">
-        <v>117544.2897935536</v>
+        <v>137087.5419361626</v>
       </c>
       <c r="AE4" t="n">
-        <v>160829.2829835487</v>
+        <v>187569.2227524874</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.923523020969584e-06</v>
+        <v>8.719925121869267e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.385850694444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>145479.9619409595</v>
+        <v>169667.8793881004</v>
       </c>
     </row>
     <row r="5">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.9678184809208</v>
+        <v>132.5110706235298</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.5675530339428</v>
+        <v>181.3074928028815</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.8158427093487</v>
+        <v>164.0037601564896</v>
       </c>
       <c r="AD5" t="n">
-        <v>112967.8184809208</v>
+        <v>132511.0706235298</v>
       </c>
       <c r="AE5" t="n">
-        <v>154567.5530339428</v>
+        <v>181307.4928028815</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.075081868914783e-06</v>
+        <v>8.988347103448353e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.255642361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>139815.8427093487</v>
+        <v>164003.7601564896</v>
       </c>
     </row>
     <row r="6">
@@ -12324,28 +12324,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.9874013002462</v>
+        <v>128.5306534428553</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.121370643734</v>
+        <v>175.8613104126727</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.8894363226948</v>
+        <v>159.0773537698357</v>
       </c>
       <c r="AD6" t="n">
-        <v>108987.4013002462</v>
+        <v>128530.6534428553</v>
       </c>
       <c r="AE6" t="n">
-        <v>149121.370643734</v>
+        <v>175861.3104126727</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.198677462577249e-06</v>
+        <v>9.207244083829984e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.153645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>134889.4363226948</v>
+        <v>159077.3537698357</v>
       </c>
     </row>
     <row r="7">
@@ -12430,28 +12430,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.1762126674481</v>
+        <v>124.7194648100572</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.9067342185664</v>
+        <v>170.6466739875051</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.1724774791553</v>
+        <v>154.3603949262962</v>
       </c>
       <c r="AD7" t="n">
-        <v>105176.2126674481</v>
+        <v>124719.4648100572</v>
       </c>
       <c r="AE7" t="n">
-        <v>143906.7342185664</v>
+        <v>170646.6739875051</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.325059430331945e-06</v>
+        <v>9.431075939775776e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.055989583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>130172.4774791553</v>
+        <v>154360.3949262962</v>
       </c>
     </row>
     <row r="8">
@@ -12536,28 +12536,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.1724617637225</v>
+        <v>122.7157139063315</v>
       </c>
       <c r="AB8" t="n">
-        <v>141.1651138328394</v>
+        <v>167.9050536017781</v>
       </c>
       <c r="AC8" t="n">
-        <v>127.6925134951528</v>
+        <v>151.8804309422937</v>
       </c>
       <c r="AD8" t="n">
-        <v>103172.4617637225</v>
+        <v>122715.7139063315</v>
       </c>
       <c r="AE8" t="n">
-        <v>141165.1138328394</v>
+        <v>167905.0536017781</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.347648963151092e-06</v>
+        <v>9.471083680956637e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.038628472222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>127692.5134951528</v>
+        <v>151880.4309422937</v>
       </c>
     </row>
     <row r="9">
@@ -12642,28 +12642,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.3394016079915</v>
+        <v>120.8826537506006</v>
       </c>
       <c r="AB9" t="n">
-        <v>138.6570400588629</v>
+        <v>165.3969798278016</v>
       </c>
       <c r="AC9" t="n">
-        <v>125.4238067620603</v>
+        <v>149.6117242092011</v>
       </c>
       <c r="AD9" t="n">
-        <v>101339.4016079915</v>
+        <v>120882.6537506006</v>
       </c>
       <c r="AE9" t="n">
-        <v>138657.0400588629</v>
+        <v>165396.9798278016</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.388349927569731e-06</v>
+        <v>9.543168113304536e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.008246527777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>125423.8067620603</v>
+        <v>149611.7242092011</v>
       </c>
     </row>
     <row r="10">
@@ -12748,28 +12748,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>101.5184348247266</v>
+        <v>121.0616869673356</v>
       </c>
       <c r="AB10" t="n">
-        <v>138.9020012043877</v>
+        <v>165.6419409733265</v>
       </c>
       <c r="AC10" t="n">
-        <v>125.6453891596614</v>
+        <v>149.8333066068023</v>
       </c>
       <c r="AD10" t="n">
-        <v>101518.4348247266</v>
+        <v>121061.6869673356</v>
       </c>
       <c r="AE10" t="n">
-        <v>138902.0012043878</v>
+        <v>165641.9409733264</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.390638734859776e-06</v>
+        <v>9.547221761089379e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.006076388888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>125645.3891596614</v>
+        <v>149833.3066068023</v>
       </c>
     </row>
   </sheetData>
@@ -13045,28 +13045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.9052173826954</v>
+        <v>271.8286433034293</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.3029493589837</v>
+        <v>371.9279420011262</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.0200012097428</v>
+        <v>336.431661220683</v>
       </c>
       <c r="AD2" t="n">
-        <v>231905.2173826954</v>
+        <v>271828.6433034292</v>
       </c>
       <c r="AE2" t="n">
-        <v>317302.9493589837</v>
+        <v>371927.9420011262</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.097288787565135e-06</v>
+        <v>5.401401192720999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>287020.0012097427</v>
+        <v>336431.661220683</v>
       </c>
     </row>
     <row r="3">
@@ -13151,28 +13151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.6597613384367</v>
+        <v>171.5809955653417</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.8251350507596</v>
+        <v>234.7646877516813</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.3267361968555</v>
+        <v>212.3590754470374</v>
       </c>
       <c r="AD3" t="n">
-        <v>141659.7613384367</v>
+        <v>171580.9955653416</v>
       </c>
       <c r="AE3" t="n">
-        <v>193825.1350507596</v>
+        <v>234764.6877516813</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.271228125293658e-06</v>
+        <v>7.448648890270606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.954427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>175326.7361968555</v>
+        <v>212359.0754470374</v>
       </c>
     </row>
     <row r="4">
@@ -13257,28 +13257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.4393003506343</v>
+        <v>147.5290245928569</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.3680729647964</v>
+        <v>201.8557199690735</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.7266288082122</v>
+        <v>182.5908933615648</v>
       </c>
       <c r="AD4" t="n">
-        <v>127439.3003506343</v>
+        <v>147529.0245928569</v>
       </c>
       <c r="AE4" t="n">
-        <v>174368.0729647964</v>
+        <v>201855.7199690735</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.683764449041944e-06</v>
+        <v>8.168076216544061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.518229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>157726.6288082122</v>
+        <v>182590.8933615648</v>
       </c>
     </row>
     <row r="5">
@@ -13363,28 +13363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.0135270026331</v>
+        <v>143.9326590442635</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.6807787356099</v>
+        <v>196.9350139650402</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.486683361599</v>
+        <v>178.1398126323006</v>
       </c>
       <c r="AD5" t="n">
-        <v>124013.5270026331</v>
+        <v>143932.6590442635</v>
       </c>
       <c r="AE5" t="n">
-        <v>169680.7787356099</v>
+        <v>196935.0139650402</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.79638072271939e-06</v>
+        <v>8.364469164274108e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.411892361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>153486.683361599</v>
+        <v>178139.8126323006</v>
       </c>
     </row>
     <row r="6">
@@ -13469,28 +13469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.9605690355161</v>
+        <v>136.8797010771466</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.03061049046</v>
+        <v>187.2848457198903</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.757513629667</v>
+        <v>169.4106429003685</v>
       </c>
       <c r="AD6" t="n">
-        <v>116960.5690355161</v>
+        <v>136879.7010771466</v>
       </c>
       <c r="AE6" t="n">
-        <v>160030.61049046</v>
+        <v>187284.8457198903</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.018298158987672e-06</v>
+        <v>8.751473795472024e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.216579861111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>144757.513629667</v>
+        <v>169410.6429003685</v>
       </c>
     </row>
     <row r="7">
@@ -13575,28 +13575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>113.6447873049878</v>
+        <v>133.5639193466182</v>
       </c>
       <c r="AB7" t="n">
-        <v>155.4938116447874</v>
+        <v>182.7480468742177</v>
       </c>
       <c r="AC7" t="n">
-        <v>140.6537004983868</v>
+        <v>165.3068297690883</v>
       </c>
       <c r="AD7" t="n">
-        <v>113644.7873049878</v>
+        <v>133563.9193466182</v>
       </c>
       <c r="AE7" t="n">
-        <v>155493.8116447874</v>
+        <v>182748.0468742177</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.111413779214478e-06</v>
+        <v>8.913859306365704e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>140653.7004983868</v>
+        <v>165306.8297690883</v>
       </c>
     </row>
     <row r="8">
@@ -13681,28 +13681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.2975881612996</v>
+        <v>132.2167202029301</v>
       </c>
       <c r="AB8" t="n">
-        <v>153.6505143421627</v>
+        <v>180.904749571593</v>
       </c>
       <c r="AC8" t="n">
-        <v>138.98632490324</v>
+        <v>163.6394541739415</v>
       </c>
       <c r="AD8" t="n">
-        <v>112297.5881612996</v>
+        <v>132216.7202029301</v>
       </c>
       <c r="AE8" t="n">
-        <v>153650.5143421627</v>
+        <v>180904.749571593</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.133059504544688e-06</v>
+        <v>8.951607561254075e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.123263888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>138986.32490324</v>
+        <v>163639.4541739415</v>
       </c>
     </row>
     <row r="9">
@@ -13787,28 +13787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>109.1304166374101</v>
+        <v>129.0495486790405</v>
       </c>
       <c r="AB9" t="n">
-        <v>149.3170505374328</v>
+        <v>176.5712857668632</v>
       </c>
       <c r="AC9" t="n">
-        <v>135.0664408019775</v>
+        <v>159.7195700726791</v>
       </c>
       <c r="AD9" t="n">
-        <v>109130.4166374101</v>
+        <v>129049.5486790405</v>
       </c>
       <c r="AE9" t="n">
-        <v>149317.0505374328</v>
+        <v>176571.2857668631</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.219447399331022e-06</v>
+        <v>9.102260506439205e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>135066.4408019775</v>
+        <v>159719.5700726791</v>
       </c>
     </row>
     <row r="10">
@@ -13893,28 +13893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.7605231010535</v>
+        <v>126.6796551426839</v>
       </c>
       <c r="AB10" t="n">
-        <v>146.0744576486675</v>
+        <v>173.3286928780978</v>
       </c>
       <c r="AC10" t="n">
-        <v>132.1333164275072</v>
+        <v>156.7864456982088</v>
       </c>
       <c r="AD10" t="n">
-        <v>106760.5231010535</v>
+        <v>126679.6551426839</v>
       </c>
       <c r="AE10" t="n">
-        <v>146074.4576486675</v>
+        <v>173328.6928780978</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.270734117906206e-06</v>
+        <v>9.191700065318863e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.014756944444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>132133.3164275072</v>
+        <v>156786.4456982088</v>
       </c>
     </row>
     <row r="11">
@@ -13999,28 +13999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>105.7905185591478</v>
+        <v>125.7096506007782</v>
       </c>
       <c r="AB11" t="n">
-        <v>144.7472546408526</v>
+        <v>172.0014898702829</v>
       </c>
       <c r="AC11" t="n">
-        <v>130.9327798120166</v>
+        <v>155.5859090827182</v>
       </c>
       <c r="AD11" t="n">
-        <v>105790.5185591478</v>
+        <v>125709.6506007782</v>
       </c>
       <c r="AE11" t="n">
-        <v>144747.2546408526</v>
+        <v>172001.4898702829</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.274146732260068e-06</v>
+        <v>9.197651366765228e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.012586805555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>130932.7798120166</v>
+        <v>155585.9090827182</v>
       </c>
     </row>
     <row r="12">
@@ -14105,28 +14105,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>106.1609220320609</v>
+        <v>126.0800540736913</v>
       </c>
       <c r="AB12" t="n">
-        <v>145.25405701354</v>
+        <v>172.5082922429703</v>
       </c>
       <c r="AC12" t="n">
-        <v>131.3912136775565</v>
+        <v>156.044342948258</v>
       </c>
       <c r="AD12" t="n">
-        <v>106160.9220320609</v>
+        <v>126080.0540736913</v>
       </c>
       <c r="AE12" t="n">
-        <v>145254.05701354</v>
+        <v>172508.2922429703</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.264006392465734e-06</v>
+        <v>9.179967499610315e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.019097222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>131391.2136775565</v>
+        <v>156044.342948258</v>
       </c>
     </row>
   </sheetData>
@@ -14402,28 +14402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.7798168216365</v>
+        <v>370.0442667710133</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.8510501171889</v>
+        <v>506.3108909969766</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.917897263918</v>
+        <v>457.9892901720229</v>
       </c>
       <c r="AD2" t="n">
-        <v>328779.8168216365</v>
+        <v>370044.2667710133</v>
       </c>
       <c r="AE2" t="n">
-        <v>449851.0501171889</v>
+        <v>506310.8909969766</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.541317272895272e-06</v>
+        <v>4.320070934615825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.036024305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>406917.897263918</v>
+        <v>457989.2901720229</v>
       </c>
     </row>
     <row r="3">
@@ -14508,28 +14508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.3971987435311</v>
+        <v>209.2388825144866</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.0909176497366</v>
+        <v>286.2898700241956</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.7952230530711</v>
+        <v>258.9667666395268</v>
       </c>
       <c r="AD3" t="n">
-        <v>178397.1987435311</v>
+        <v>209238.8825144866</v>
       </c>
       <c r="AE3" t="n">
-        <v>244090.9176497366</v>
+        <v>286289.8700241956</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.814281663266027e-06</v>
+        <v>6.484026030776017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.353732638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>220795.2230530711</v>
+        <v>258966.7666395268</v>
       </c>
     </row>
     <row r="4">
@@ -14614,28 +14614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.2334489386814</v>
+        <v>178.1603840556574</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.4513003191531</v>
+        <v>243.7668973462614</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.2250709554262</v>
+        <v>220.5021267925941</v>
       </c>
       <c r="AD4" t="n">
-        <v>147233.4489386814</v>
+        <v>178160.3840556574</v>
       </c>
       <c r="AE4" t="n">
-        <v>201451.3003191531</v>
+        <v>243766.8973462614</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.274773661054293e-06</v>
+        <v>7.266831907274007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.778645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>182225.0709554262</v>
+        <v>220502.1267925941</v>
       </c>
     </row>
     <row r="5">
@@ -14720,28 +14720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.7037511114901</v>
+        <v>158.4639426137602</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.4123473314002</v>
+        <v>216.8173572198017</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.4305373405348</v>
+        <v>196.124612951878</v>
       </c>
       <c r="AD5" t="n">
-        <v>137703.7511114901</v>
+        <v>158463.9426137602</v>
       </c>
       <c r="AE5" t="n">
-        <v>188412.3473314002</v>
+        <v>216817.3572198018</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.532076976393169e-06</v>
+        <v>7.704230490218111e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.507378472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>170430.5373405348</v>
+        <v>196124.6129518781</v>
       </c>
     </row>
     <row r="6">
@@ -14826,28 +14826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>134.0852291326399</v>
+        <v>154.6748284343177</v>
       </c>
       <c r="AB6" t="n">
-        <v>183.4613259220168</v>
+        <v>211.6329240355714</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.9520344656592</v>
+        <v>191.4349747943514</v>
       </c>
       <c r="AD6" t="n">
-        <v>134085.2291326399</v>
+        <v>154674.8284343177</v>
       </c>
       <c r="AE6" t="n">
-        <v>183461.3259220168</v>
+        <v>211632.9240355715</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.636824083186209e-06</v>
+        <v>7.882293629507355e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.405381944444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>165952.0344656591</v>
+        <v>191434.9747943514</v>
       </c>
     </row>
     <row r="7">
@@ -14932,28 +14932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.7870946590973</v>
+        <v>150.3766939607752</v>
       </c>
       <c r="AB7" t="n">
-        <v>177.5804287150086</v>
+        <v>205.7520268285633</v>
       </c>
       <c r="AC7" t="n">
-        <v>160.6324018341949</v>
+        <v>186.1153421628871</v>
       </c>
       <c r="AD7" t="n">
-        <v>129787.0946590973</v>
+        <v>150376.6939607752</v>
       </c>
       <c r="AE7" t="n">
-        <v>177580.4287150086</v>
+        <v>205752.0268285633</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.754182252252623e-06</v>
+        <v>8.081794738845796e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>160632.4018341949</v>
+        <v>186115.3421628871</v>
       </c>
     </row>
     <row r="8">
@@ -15038,28 +15038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>126.9245205110599</v>
+        <v>147.5141198127378</v>
       </c>
       <c r="AB8" t="n">
-        <v>173.6637284778073</v>
+        <v>201.835326591362</v>
       </c>
       <c r="AC8" t="n">
-        <v>157.0895059705075</v>
+        <v>182.5724462991998</v>
       </c>
       <c r="AD8" t="n">
-        <v>126924.5205110599</v>
+        <v>147514.1198127378</v>
       </c>
       <c r="AE8" t="n">
-        <v>173663.7284778073</v>
+        <v>201835.326591362</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.829001614247652e-06</v>
+        <v>8.20898269548097e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.229600694444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>157089.5059705075</v>
+        <v>182572.4462991998</v>
       </c>
     </row>
     <row r="9">
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>122.6830050837135</v>
+        <v>143.2726043853913</v>
       </c>
       <c r="AB9" t="n">
-        <v>167.8602999476606</v>
+        <v>196.0318980612152</v>
       </c>
       <c r="AC9" t="n">
-        <v>151.839948514113</v>
+        <v>177.3228888428053</v>
       </c>
       <c r="AD9" t="n">
-        <v>122683.0050837134</v>
+        <v>143272.6043853913</v>
       </c>
       <c r="AE9" t="n">
-        <v>167860.2999476606</v>
+        <v>196031.8980612152</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.950030167110049e-06</v>
+        <v>8.414723214012834e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.125434027777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>151839.948514113</v>
+        <v>177322.8888428053</v>
       </c>
     </row>
     <row r="10">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>122.5150397900351</v>
+        <v>143.104639091713</v>
       </c>
       <c r="AB10" t="n">
-        <v>167.6304824227443</v>
+        <v>195.8020805362989</v>
       </c>
       <c r="AC10" t="n">
-        <v>151.6320644512237</v>
+        <v>177.115004779916</v>
       </c>
       <c r="AD10" t="n">
-        <v>122515.0397900352</v>
+        <v>143104.639091713</v>
       </c>
       <c r="AE10" t="n">
-        <v>167630.4824227442</v>
+        <v>195802.0805362989</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.93807789167185e-06</v>
+        <v>8.394405137921429e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.136284722222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>151632.0644512237</v>
+        <v>177115.004779916</v>
       </c>
     </row>
     <row r="11">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>120.9566224480839</v>
+        <v>141.5462217497617</v>
       </c>
       <c r="AB11" t="n">
-        <v>165.4981870629668</v>
+        <v>193.6697851765215</v>
       </c>
       <c r="AC11" t="n">
-        <v>149.7032723678874</v>
+        <v>175.1862126965797</v>
       </c>
       <c r="AD11" t="n">
-        <v>120956.6224480839</v>
+        <v>141546.2217497617</v>
       </c>
       <c r="AE11" t="n">
-        <v>165498.1870629668</v>
+        <v>193669.7851765215</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.958688508372367e-06</v>
+        <v>8.42944182031527e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.118923611111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>149703.2723678874</v>
+        <v>175186.2126965797</v>
       </c>
     </row>
     <row r="12">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.8375739947529</v>
+        <v>139.4271732964308</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.598811483301</v>
+        <v>190.7704095968556</v>
       </c>
       <c r="AC12" t="n">
-        <v>147.0806091242448</v>
+        <v>172.5635494529371</v>
       </c>
       <c r="AD12" t="n">
-        <v>118837.573994753</v>
+        <v>139427.1732964308</v>
       </c>
       <c r="AE12" t="n">
-        <v>162598.811483301</v>
+        <v>190770.4095968556</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.01402660252718e-06</v>
+        <v>8.523512912769963e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.073350694444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>147080.6091242448</v>
+        <v>172563.5494529371</v>
       </c>
     </row>
     <row r="13">
@@ -15568,28 +15568,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>117.5053232729038</v>
+        <v>138.0949225745816</v>
       </c>
       <c r="AB13" t="n">
-        <v>160.7759672709142</v>
+        <v>188.9475653844688</v>
       </c>
       <c r="AC13" t="n">
-        <v>145.4317346051097</v>
+        <v>170.9146749338019</v>
       </c>
       <c r="AD13" t="n">
-        <v>117505.3232729038</v>
+        <v>138094.9225745816</v>
       </c>
       <c r="AE13" t="n">
-        <v>160775.9672709141</v>
+        <v>188947.5653844688</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.019955684043767e-06</v>
+        <v>8.533591958390108e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.069010416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>145431.7346051097</v>
+        <v>170914.6749338019</v>
       </c>
     </row>
     <row r="14">
@@ -15674,28 +15674,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>116.4489341023961</v>
+        <v>137.0385334040739</v>
       </c>
       <c r="AB14" t="n">
-        <v>159.3305690032252</v>
+        <v>187.5021671167798</v>
       </c>
       <c r="AC14" t="n">
-        <v>144.1242831194592</v>
+        <v>169.6072234481515</v>
       </c>
       <c r="AD14" t="n">
-        <v>116448.9341023961</v>
+        <v>137038.5334040739</v>
       </c>
       <c r="AE14" t="n">
-        <v>159330.5690032252</v>
+        <v>187502.1671167798</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.042072099224687e-06</v>
+        <v>8.571188398401764e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.051649305555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>144124.2831194593</v>
+        <v>169607.2234481515</v>
       </c>
     </row>
     <row r="15">
@@ -15780,28 +15780,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>114.3326992179241</v>
+        <v>134.922298519602</v>
       </c>
       <c r="AB15" t="n">
-        <v>156.4350430725981</v>
+        <v>184.6066411861528</v>
       </c>
       <c r="AC15" t="n">
-        <v>141.5051021197542</v>
+        <v>166.9880424484464</v>
       </c>
       <c r="AD15" t="n">
-        <v>114332.6992179241</v>
+        <v>134922.298519602</v>
       </c>
       <c r="AE15" t="n">
-        <v>156435.0430725981</v>
+        <v>184606.6411861528</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.075858452628731e-06</v>
+        <v>8.628622959951485e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.0234375</v>
       </c>
       <c r="AH15" t="n">
-        <v>141505.1021197542</v>
+        <v>166988.0424484464</v>
       </c>
     </row>
     <row r="16">
@@ -15886,28 +15886,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>114.8747638450879</v>
+        <v>135.4643631467657</v>
       </c>
       <c r="AB16" t="n">
-        <v>157.1767198096869</v>
+        <v>185.3483179232415</v>
       </c>
       <c r="AC16" t="n">
-        <v>142.1759942700052</v>
+        <v>167.6589345986975</v>
       </c>
       <c r="AD16" t="n">
-        <v>114874.7638450879</v>
+        <v>135464.3631467657</v>
       </c>
       <c r="AE16" t="n">
-        <v>157176.7198096869</v>
+        <v>185348.3179232415</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.064094402000582e-06</v>
+        <v>8.608624853562306e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.032118055555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>142175.9942700052</v>
+        <v>167658.9345986975</v>
       </c>
     </row>
   </sheetData>
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.5414194294106</v>
+        <v>195.3658585128721</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.869317352096</v>
+        <v>267.3081865505725</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.1217895206731</v>
+        <v>241.7966683956602</v>
       </c>
       <c r="AD2" t="n">
-        <v>166541.4194294105</v>
+        <v>195365.8585128721</v>
       </c>
       <c r="AE2" t="n">
-        <v>227869.317352096</v>
+        <v>267308.1865505725</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.771235976079512e-06</v>
+        <v>6.800430889935771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>206121.7895206731</v>
+        <v>241796.6683956602</v>
       </c>
     </row>
     <row r="3">
@@ -16289,28 +16289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.8469521212555</v>
+        <v>137.1485856981349</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.2433989328299</v>
+        <v>187.6527455206786</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.8545552452568</v>
+        <v>169.7434308605203</v>
       </c>
       <c r="AD3" t="n">
-        <v>117846.9521212555</v>
+        <v>137148.5856981349</v>
       </c>
       <c r="AE3" t="n">
-        <v>161243.3989328299</v>
+        <v>187652.7455206786</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.801911510254807e-06</v>
+        <v>8.658982777052937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>145854.5552452568</v>
+        <v>169743.4308605203</v>
       </c>
     </row>
     <row r="4">
@@ -16395,28 +16395,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.7957951040438</v>
+        <v>125.926836480331</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.1227183592499</v>
+        <v>172.2986531722517</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.176971203606</v>
+        <v>155.8547115362184</v>
       </c>
       <c r="AD4" t="n">
-        <v>106795.7951040438</v>
+        <v>125926.836480331</v>
       </c>
       <c r="AE4" t="n">
-        <v>146122.7183592499</v>
+        <v>172298.6531722517</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.217317632889914e-06</v>
+        <v>9.408058317844998e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.233940972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>132176.971203606</v>
+        <v>155854.7115362184</v>
       </c>
     </row>
     <row r="5">
@@ -16501,28 +16501,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.4639748222051</v>
+        <v>122.5950161984922</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.5639748601035</v>
+        <v>167.7399096731053</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.05330778578</v>
+        <v>151.7310481183925</v>
       </c>
       <c r="AD5" t="n">
-        <v>103463.9748222051</v>
+        <v>122595.0161984922</v>
       </c>
       <c r="AE5" t="n">
-        <v>141563.9748601035</v>
+        <v>167739.9096731053</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.324732696463454e-06</v>
+        <v>9.601753096162553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>128053.30778578</v>
+        <v>151731.0481183925</v>
       </c>
     </row>
     <row r="6">
@@ -16607,28 +16607,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.40774810169148</v>
+        <v>118.5387894779786</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.0140665130062</v>
+        <v>162.190001326008</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.0330749019826</v>
+        <v>146.7108152345951</v>
       </c>
       <c r="AD6" t="n">
-        <v>99407.74810169148</v>
+        <v>118538.7894779786</v>
       </c>
       <c r="AE6" t="n">
-        <v>136014.0665130062</v>
+        <v>162190.001326008</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.455870707726694e-06</v>
+        <v>9.838225962961615e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.049479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>123033.0749019826</v>
+        <v>146710.8152345951</v>
       </c>
     </row>
     <row r="7">
@@ -16713,28 +16713,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>97.27918490244402</v>
+        <v>116.4102262787311</v>
       </c>
       <c r="AB7" t="n">
-        <v>133.1016724382164</v>
+        <v>159.2776072512183</v>
       </c>
       <c r="AC7" t="n">
-        <v>120.3986356301191</v>
+        <v>144.0763759627316</v>
       </c>
       <c r="AD7" t="n">
-        <v>97279.18490244402</v>
+        <v>116410.2262787311</v>
       </c>
       <c r="AE7" t="n">
-        <v>133101.6724382165</v>
+        <v>159277.6072512183</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.496800428633387e-06</v>
+        <v>9.912031935363185e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.019097222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>120398.6356301191</v>
+        <v>144076.3759627316</v>
       </c>
     </row>
     <row r="8">
@@ -16819,28 +16819,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>96.8900493813846</v>
+        <v>116.0210907576717</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.5692400508557</v>
+        <v>158.7451748638574</v>
       </c>
       <c r="AC8" t="n">
-        <v>119.9170178425343</v>
+        <v>143.5947581751468</v>
       </c>
       <c r="AD8" t="n">
-        <v>96890.0493813846</v>
+        <v>116021.0907576717</v>
       </c>
       <c r="AE8" t="n">
-        <v>132569.2400508556</v>
+        <v>158745.1748638574</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.517977995669688e-06</v>
+        <v>9.95022010018788e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>119917.0178425343</v>
+        <v>143594.7581751468</v>
       </c>
     </row>
   </sheetData>
@@ -17116,28 +17116,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.7336633375723</v>
+        <v>151.2371938450756</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.6120539743316</v>
+        <v>206.9294007328381</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.279254437191</v>
+        <v>187.180349154193</v>
       </c>
       <c r="AD2" t="n">
-        <v>132733.6633375723</v>
+        <v>151237.1938450756</v>
       </c>
       <c r="AE2" t="n">
-        <v>181612.0539743316</v>
+        <v>206929.4007328381</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.406804123404084e-06</v>
+        <v>8.221687891336671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.223524305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>164279.254437191</v>
+        <v>187180.349154193</v>
       </c>
     </row>
     <row r="3">
@@ -17222,28 +17222,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.72138441045769</v>
+        <v>118.1395740633893</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.4431975473173</v>
+        <v>161.6437771836261</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.4212502726684</v>
+        <v>146.2167219577316</v>
       </c>
       <c r="AD3" t="n">
-        <v>99721.38441045769</v>
+        <v>118139.5740633893</v>
       </c>
       <c r="AE3" t="n">
-        <v>136443.1975473173</v>
+        <v>161643.7771836261</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.304476624679437e-06</v>
+        <v>9.896457844220444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.338107638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>123421.2502726684</v>
+        <v>146216.7219577316</v>
       </c>
     </row>
     <row r="4">
@@ -17328,28 +17328,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.94307705732338</v>
+        <v>111.361266710255</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.1688183889482</v>
+        <v>152.3693980252571</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.0320048444981</v>
+        <v>137.8274765295614</v>
       </c>
       <c r="AD4" t="n">
-        <v>92943.07705732337</v>
+        <v>111361.266710255</v>
       </c>
       <c r="AE4" t="n">
-        <v>127168.8183889482</v>
+        <v>152369.398025257</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.589241589935145e-06</v>
+        <v>1.042773824633445e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.118923611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>115032.0048444982</v>
+        <v>137827.4765295614</v>
       </c>
     </row>
     <row r="5">
@@ -17434,28 +17434,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.83163680405214</v>
+        <v>107.2498264569838</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.5433644504828</v>
+        <v>146.7439440867916</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.9434363345439</v>
+        <v>132.7389080196071</v>
       </c>
       <c r="AD5" t="n">
-        <v>88831.63680405213</v>
+        <v>107249.8264569838</v>
       </c>
       <c r="AE5" t="n">
-        <v>121543.3644504828</v>
+        <v>146743.9440867916</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.732419505426843e-06</v>
+        <v>1.069486247086104e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.014756944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>109943.4363345439</v>
+        <v>132738.9080196071</v>
       </c>
     </row>
     <row r="6">
@@ -17540,28 +17540,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.19678381092848</v>
+        <v>107.6149734638601</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.0429746944398</v>
+        <v>147.2435543307486</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.3953644780252</v>
+        <v>133.1908361630884</v>
       </c>
       <c r="AD6" t="n">
-        <v>89196.78381092848</v>
+        <v>107614.9734638601</v>
       </c>
       <c r="AE6" t="n">
-        <v>122042.9746944398</v>
+        <v>147243.5543307486</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.728495369965219e-06</v>
+        <v>1.068754128841105e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.016927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>110395.3644780252</v>
+        <v>133190.8361630884</v>
       </c>
     </row>
   </sheetData>
@@ -32466,28 +32466,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.2148659041112</v>
+        <v>130.0299929890173</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.2231330484578</v>
+        <v>177.912772925923</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.7449954382631</v>
+        <v>160.9330275800677</v>
       </c>
       <c r="AD2" t="n">
-        <v>103214.8659041112</v>
+        <v>130029.9929890173</v>
       </c>
       <c r="AE2" t="n">
-        <v>141223.1330484578</v>
+        <v>177912.7729259229</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.928364816993994e-06</v>
+        <v>9.477428304627205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.830729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>127744.9954382631</v>
+        <v>160933.0275800677</v>
       </c>
     </row>
     <row r="3">
@@ -32572,28 +32572,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.35673936227241</v>
+        <v>104.205133309237</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.1571005858722</v>
+        <v>142.5780605996648</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.8803527405195</v>
+        <v>128.9706106056362</v>
       </c>
       <c r="AD3" t="n">
-        <v>86356.7393622724</v>
+        <v>104205.133309237</v>
       </c>
       <c r="AE3" t="n">
-        <v>118157.1005858722</v>
+        <v>142578.0605996648</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.753178304987603e-06</v>
+        <v>1.106357522909877e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.138454861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>106880.3527405195</v>
+        <v>128970.6106056362</v>
       </c>
     </row>
     <row r="4">
@@ -32678,28 +32678,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.91556009060662</v>
+        <v>101.7639540375712</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.8169714091521</v>
+        <v>139.2379314229448</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.8590008045238</v>
+        <v>125.9492586696405</v>
       </c>
       <c r="AD4" t="n">
-        <v>83915.56009060662</v>
+        <v>101763.9540375712</v>
       </c>
       <c r="AE4" t="n">
-        <v>114816.9714091521</v>
+        <v>139237.9314229448</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.844239118373436e-06</v>
+        <v>1.123868855010322e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.073350694444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>103859.0008045238</v>
+        <v>125949.2586696405</v>
       </c>
     </row>
     <row r="5">
@@ -32784,28 +32784,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.22451174133252</v>
+        <v>102.0729056882971</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.23969268766</v>
+        <v>139.6606527014526</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.241378157504</v>
+        <v>126.3316360226207</v>
       </c>
       <c r="AD5" t="n">
-        <v>84224.51174133252</v>
+        <v>102072.9056882971</v>
       </c>
       <c r="AE5" t="n">
-        <v>115239.69268766</v>
+        <v>139660.6527014526</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.845445948430356e-06</v>
+        <v>1.124100932905629e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.073350694444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>104241.378157504</v>
+        <v>126331.6360226207</v>
       </c>
     </row>
   </sheetData>
@@ -33081,28 +33081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.14760598994509</v>
+        <v>89.86648814412955</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.0837815600268</v>
+        <v>122.959293708395</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.53192591643243</v>
+        <v>111.2242312913506</v>
       </c>
       <c r="AD2" t="n">
-        <v>73147.60598994509</v>
+        <v>89866.48814412954</v>
       </c>
       <c r="AE2" t="n">
-        <v>100083.7815600268</v>
+        <v>122959.293708395</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.947178610389064e-06</v>
+        <v>1.22666465658115e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>90531.92591643243</v>
+        <v>111224.2312913506</v>
       </c>
     </row>
     <row r="3">
@@ -33187,28 +33187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.43108832287673</v>
+        <v>90.14997047706119</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.4716545943015</v>
+        <v>123.3471667426697</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.88278089269933</v>
+        <v>111.5750862676175</v>
       </c>
       <c r="AD3" t="n">
-        <v>73431.08832287673</v>
+        <v>90149.97047706119</v>
       </c>
       <c r="AE3" t="n">
-        <v>100471.6545943015</v>
+        <v>123347.1667426697</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.959542807084259e-06</v>
+        <v>1.229214894952421e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>90882.78089269933</v>
+        <v>111575.0862676175</v>
       </c>
     </row>
   </sheetData>
@@ -33484,28 +33484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.3950366144473</v>
+        <v>246.2110553795806</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.0812357709944</v>
+        <v>336.8768280353417</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.8236581817223</v>
+        <v>304.7257763773467</v>
       </c>
       <c r="AD2" t="n">
-        <v>216395.0366144473</v>
+        <v>246211.0553795806</v>
       </c>
       <c r="AE2" t="n">
-        <v>296081.2357709944</v>
+        <v>336876.8280353417</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.253864819144523e-06</v>
+        <v>5.716912129507294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.566840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>267823.6581817223</v>
+        <v>304725.7763773467</v>
       </c>
     </row>
     <row r="3">
@@ -33590,28 +33590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.0217810891466</v>
+        <v>165.6671181451367</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.1110017435506</v>
+        <v>226.6730597635027</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.3488289456299</v>
+        <v>205.0397010773767</v>
       </c>
       <c r="AD3" t="n">
-        <v>136021.7810891466</v>
+        <v>165667.1181451367</v>
       </c>
       <c r="AE3" t="n">
-        <v>186111.0017435506</v>
+        <v>226673.0597635027</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.382111572759279e-06</v>
+        <v>7.69919716878352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.876302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>168348.8289456299</v>
+        <v>205039.7010773767</v>
       </c>
     </row>
     <row r="4">
@@ -33696,28 +33696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.7787863300244</v>
+        <v>142.5139869243783</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.9913520744335</v>
+        <v>194.9939241832174</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.9584932098396</v>
+        <v>176.3839777349178</v>
       </c>
       <c r="AD4" t="n">
-        <v>122778.7863300244</v>
+        <v>142513.9869243783</v>
       </c>
       <c r="AE4" t="n">
-        <v>167991.3520744335</v>
+        <v>194993.9241832174</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.789903298928321e-06</v>
+        <v>8.415671145185967e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.461805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>151958.4932098396</v>
+        <v>176383.9777349178</v>
       </c>
     </row>
     <row r="5">
@@ -33802,28 +33802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.4462481155047</v>
+        <v>137.1814487098586</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.6951380343488</v>
+        <v>187.6977101431327</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.3586195974375</v>
+        <v>169.7841041225157</v>
       </c>
       <c r="AD5" t="n">
-        <v>117446.2481155047</v>
+        <v>137181.4487098586</v>
       </c>
       <c r="AE5" t="n">
-        <v>160695.1380343488</v>
+        <v>187697.7101431327</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.967456663401342e-06</v>
+        <v>8.727625402479764e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.301215277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>145358.6195974375</v>
+        <v>169784.1041225157</v>
       </c>
     </row>
     <row r="6">
@@ -33908,28 +33908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.9186308468661</v>
+        <v>132.65383144122</v>
       </c>
       <c r="AB6" t="n">
-        <v>154.5002523430238</v>
+        <v>181.5028244518078</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.754965101914</v>
+        <v>164.1804496269922</v>
       </c>
       <c r="AD6" t="n">
-        <v>112918.6308468661</v>
+        <v>132653.83144122</v>
       </c>
       <c r="AE6" t="n">
-        <v>154500.2523430238</v>
+        <v>181502.8244518078</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.112808169758625e-06</v>
+        <v>8.983002265355887e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.1796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>139754.965101914</v>
+        <v>164180.4496269922</v>
       </c>
     </row>
     <row r="7">
@@ -34014,28 +34014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>109.6696777519402</v>
+        <v>129.4048783462941</v>
       </c>
       <c r="AB7" t="n">
-        <v>150.054891384854</v>
+        <v>177.0574634936379</v>
       </c>
       <c r="AC7" t="n">
-        <v>135.7338631544872</v>
+        <v>160.1593476795653</v>
       </c>
       <c r="AD7" t="n">
-        <v>109669.6777519402</v>
+        <v>129404.8783462942</v>
       </c>
       <c r="AE7" t="n">
-        <v>150054.891384854</v>
+        <v>177057.4634936379</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.207838118020668e-06</v>
+        <v>9.149966135732211e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.103732638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>135733.8631544872</v>
+        <v>160159.3476795653</v>
       </c>
     </row>
     <row r="8">
@@ -34120,28 +34120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.3467479902503</v>
+        <v>127.0819485846042</v>
       </c>
       <c r="AB8" t="n">
-        <v>146.876556404483</v>
+        <v>173.8791285132669</v>
       </c>
       <c r="AC8" t="n">
-        <v>132.8588640038206</v>
+        <v>157.2843485288988</v>
       </c>
       <c r="AD8" t="n">
-        <v>107346.7479902503</v>
+        <v>127081.9485846042</v>
       </c>
       <c r="AE8" t="n">
-        <v>146876.556404483</v>
+        <v>173879.1285132669</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.253531274490709e-06</v>
+        <v>9.230247209156682e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.066840277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>132858.8640038206</v>
+        <v>157284.3485288988</v>
       </c>
     </row>
     <row r="9">
@@ -34226,28 +34226,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>104.6147829561028</v>
+        <v>124.3499835504567</v>
       </c>
       <c r="AB9" t="n">
-        <v>143.1385613189733</v>
+        <v>170.1411334277572</v>
       </c>
       <c r="AC9" t="n">
-        <v>129.4776179229617</v>
+        <v>153.9031024480399</v>
       </c>
       <c r="AD9" t="n">
-        <v>104614.7829561028</v>
+        <v>124349.9835504567</v>
       </c>
       <c r="AE9" t="n">
-        <v>143138.5613189733</v>
+        <v>170141.1334277572</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.316950224418954e-06</v>
+        <v>9.341671802444094e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.019097222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>129477.6179229617</v>
+        <v>153903.1024480399</v>
       </c>
     </row>
     <row r="10">
@@ -34332,28 +34332,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.21181205963126</v>
+        <v>122.7718082610498</v>
       </c>
       <c r="AB10" t="n">
-        <v>127.5365134748572</v>
+        <v>167.9818043726117</v>
       </c>
       <c r="AC10" t="n">
-        <v>115.3646076274714</v>
+        <v>151.9498567272794</v>
       </c>
       <c r="AD10" t="n">
-        <v>93211.81205963125</v>
+        <v>122771.8082610498</v>
       </c>
       <c r="AE10" t="n">
-        <v>127536.5134748572</v>
+        <v>167981.8043726117</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.354568297202478e-06</v>
+        <v>9.407765272375449e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.990885416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>115364.6076274714</v>
+        <v>151949.8567272794</v>
       </c>
     </row>
     <row r="11">
@@ -34438,28 +34438,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>93.49751729352667</v>
+        <v>123.0575134949452</v>
       </c>
       <c r="AB11" t="n">
-        <v>127.9274279802981</v>
+        <v>168.3727188780526</v>
       </c>
       <c r="AC11" t="n">
-        <v>115.7182138011651</v>
+        <v>152.3034629009731</v>
       </c>
       <c r="AD11" t="n">
-        <v>93497.51729352667</v>
+        <v>123057.5134949452</v>
       </c>
       <c r="AE11" t="n">
-        <v>127927.4279802981</v>
+        <v>168372.7188780526</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.351515521662454e-06</v>
+        <v>9.40240166617683e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.993055555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>115718.2138011651</v>
+        <v>152303.4629009731</v>
       </c>
     </row>
   </sheetData>
@@ -34735,28 +34735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.3493511230427</v>
+        <v>338.3809782127049</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.8465003340887</v>
+        <v>462.987782705795</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.0176413548519</v>
+        <v>418.8008785317874</v>
       </c>
       <c r="AD2" t="n">
-        <v>297349.3511230427</v>
+        <v>338380.9782127049</v>
       </c>
       <c r="AE2" t="n">
-        <v>406846.5003340887</v>
+        <v>462987.782705795</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.667599379629681e-06</v>
+        <v>4.561297655501596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.719184027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>368017.6413548519</v>
+        <v>418800.8785317874</v>
       </c>
     </row>
     <row r="3">
@@ -34841,28 +34841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.2654130678959</v>
+        <v>191.7813161212778</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.3328938561592</v>
+        <v>262.4036575115463</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.9684913548772</v>
+        <v>237.3602207245673</v>
       </c>
       <c r="AD3" t="n">
-        <v>171265.4130678959</v>
+        <v>191781.3161212778</v>
       </c>
       <c r="AE3" t="n">
-        <v>234332.8938561591</v>
+        <v>262403.6575115463</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.926194611817383e-06</v>
+        <v>6.713355241674899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.245225694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>211968.4913548772</v>
+        <v>237360.2207245673</v>
       </c>
     </row>
     <row r="4">
@@ -34947,28 +34947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.2420947306699</v>
+        <v>172.9304741933445</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.6219092887488</v>
+        <v>236.6111039453092</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.0474674198509</v>
+        <v>214.0292722706075</v>
       </c>
       <c r="AD4" t="n">
-        <v>142242.0947306699</v>
+        <v>172930.4741933445</v>
       </c>
       <c r="AE4" t="n">
-        <v>194621.9092887488</v>
+        <v>236611.1039453092</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.369924635621175e-06</v>
+        <v>7.472084132042565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>176047.4674198509</v>
+        <v>214029.2722706075</v>
       </c>
     </row>
     <row r="5">
@@ -35053,28 +35053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.7246510279539</v>
+        <v>153.1552132267642</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.5997229347168</v>
+        <v>209.5537194679063</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.2681002546902</v>
+        <v>189.5542065924416</v>
       </c>
       <c r="AD5" t="n">
-        <v>132724.6510279539</v>
+        <v>153155.2132267642</v>
       </c>
       <c r="AE5" t="n">
-        <v>181599.7229347168</v>
+        <v>209553.7194679063</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.637908721853405e-06</v>
+        <v>7.930307054711147e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.440104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>164268.1002546902</v>
+        <v>189554.2065924416</v>
       </c>
     </row>
     <row r="6">
@@ -35159,28 +35159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.476370840648</v>
+        <v>149.9069330394582</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.1552826784391</v>
+        <v>205.1092792116285</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.2478311386592</v>
+        <v>185.5339374764105</v>
       </c>
       <c r="AD6" t="n">
-        <v>129476.370840648</v>
+        <v>149906.9330394582</v>
       </c>
       <c r="AE6" t="n">
-        <v>177155.282678439</v>
+        <v>205109.2792116285</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.737928278117133e-06</v>
+        <v>8.101329349503173e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.346788194444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>160247.8311386592</v>
+        <v>185533.9374764105</v>
       </c>
     </row>
     <row r="7">
@@ -35265,28 +35265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.8927094081372</v>
+        <v>146.3232716069475</v>
       </c>
       <c r="AB7" t="n">
-        <v>172.251959006496</v>
+        <v>200.2059555396855</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.8124737961068</v>
+        <v>181.0985801338582</v>
       </c>
       <c r="AD7" t="n">
-        <v>125892.7094081372</v>
+        <v>146323.2716069475</v>
       </c>
       <c r="AE7" t="n">
-        <v>172251.959006496</v>
+        <v>200205.9555396855</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.83519587315539e-06</v>
+        <v>8.267646097284793e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.259982638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>155812.4737961068</v>
+        <v>181098.5801338582</v>
       </c>
     </row>
     <row r="8">
@@ -35371,28 +35371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>123.0450271064947</v>
+        <v>143.475589305305</v>
       </c>
       <c r="AB8" t="n">
-        <v>168.3556344505141</v>
+        <v>196.3096309837036</v>
       </c>
       <c r="AC8" t="n">
-        <v>152.2880089872207</v>
+        <v>177.5741153249721</v>
       </c>
       <c r="AD8" t="n">
-        <v>123045.0271064947</v>
+        <v>143475.589305305</v>
       </c>
       <c r="AE8" t="n">
-        <v>168355.6344505141</v>
+        <v>196309.6309837036</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.913199739615338e-06</v>
+        <v>8.401024015993566e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.190538194444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>152288.0089872207</v>
+        <v>177574.1153249721</v>
       </c>
     </row>
     <row r="9">
@@ -35477,28 +35477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>121.8927226391615</v>
+        <v>142.3232848379717</v>
       </c>
       <c r="AB9" t="n">
-        <v>166.7790006422243</v>
+        <v>194.7329971754138</v>
       </c>
       <c r="AC9" t="n">
-        <v>150.8618468967741</v>
+        <v>176.1479532345255</v>
       </c>
       <c r="AD9" t="n">
-        <v>121892.7226391615</v>
+        <v>142323.2848379717</v>
       </c>
       <c r="AE9" t="n">
-        <v>166779.0006422243</v>
+        <v>194732.9971754138</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.933697105984374e-06</v>
+        <v>8.43607222820901e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.173177083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>150861.8468967741</v>
+        <v>176147.9532345255</v>
       </c>
     </row>
     <row r="10">
@@ -35583,28 +35583,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>119.0200815096156</v>
+        <v>139.4506437084259</v>
       </c>
       <c r="AB10" t="n">
-        <v>162.8485263167993</v>
+        <v>190.8025228499888</v>
       </c>
       <c r="AC10" t="n">
-        <v>147.306491524511</v>
+        <v>172.5925978622624</v>
       </c>
       <c r="AD10" t="n">
-        <v>119020.0815096156</v>
+        <v>139450.6437084259</v>
       </c>
       <c r="AE10" t="n">
-        <v>162848.5263167993</v>
+        <v>190802.5228499888</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.001072708401118e-06</v>
+        <v>8.55127699984311e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.118923611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>147306.491524511</v>
+        <v>172592.5978622624</v>
       </c>
     </row>
     <row r="11">
@@ -35689,28 +35689,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>116.9665143123105</v>
+        <v>137.3970765111208</v>
       </c>
       <c r="AB11" t="n">
-        <v>160.0387450804571</v>
+        <v>187.9927416136466</v>
       </c>
       <c r="AC11" t="n">
-        <v>144.7648718658118</v>
+        <v>170.0509782035631</v>
       </c>
       <c r="AD11" t="n">
-        <v>116966.5143123105</v>
+        <v>137397.0765111208</v>
       </c>
       <c r="AE11" t="n">
-        <v>160038.7450804571</v>
+        <v>187992.7416136466</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.044914297579337e-06</v>
+        <v>8.626241231526142e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.08203125</v>
       </c>
       <c r="AH11" t="n">
-        <v>144764.8718658118</v>
+        <v>170050.9782035631</v>
       </c>
     </row>
     <row r="12">
@@ -35795,28 +35795,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.2302839274796</v>
+        <v>135.6608461262899</v>
       </c>
       <c r="AB12" t="n">
-        <v>157.663158070854</v>
+        <v>185.6171546040436</v>
       </c>
       <c r="AC12" t="n">
-        <v>142.6160075462471</v>
+        <v>167.9021138839985</v>
       </c>
       <c r="AD12" t="n">
-        <v>115230.2839274796</v>
+        <v>135660.8461262899</v>
       </c>
       <c r="AE12" t="n">
-        <v>157663.158070854</v>
+        <v>185617.1546040436</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.072813490692749e-06</v>
+        <v>8.673945742597161e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.060329861111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>142616.0075462472</v>
+        <v>167902.1138839985</v>
       </c>
     </row>
     <row r="13">
@@ -35901,28 +35901,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>113.604075177253</v>
+        <v>134.0346373760632</v>
       </c>
       <c r="AB13" t="n">
-        <v>155.4381075155284</v>
+        <v>183.3921040487179</v>
       </c>
       <c r="AC13" t="n">
-        <v>140.603312693043</v>
+        <v>165.8894190307944</v>
       </c>
       <c r="AD13" t="n">
-        <v>113604.075177253</v>
+        <v>134034.6373760632</v>
       </c>
       <c r="AE13" t="n">
-        <v>155438.1075155284</v>
+        <v>183392.1040487179</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.100902474235504e-06</v>
+        <v>8.72197477415166e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>140603.312693043</v>
+        <v>165889.4190307943</v>
       </c>
     </row>
     <row r="14">
@@ -36007,28 +36007,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>112.11205363502</v>
+        <v>132.5426158338303</v>
       </c>
       <c r="AB14" t="n">
-        <v>153.3966578181014</v>
+        <v>181.350654351291</v>
       </c>
       <c r="AC14" t="n">
-        <v>138.7566960895452</v>
+        <v>164.0428024272966</v>
       </c>
       <c r="AD14" t="n">
-        <v>112112.05363502</v>
+        <v>132542.6158338303</v>
       </c>
       <c r="AE14" t="n">
-        <v>153396.6578181014</v>
+        <v>181350.654351291</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.124246697044686e-06</v>
+        <v>8.761890793619249e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.019097222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>138756.6960895452</v>
+        <v>164042.8024272966</v>
       </c>
     </row>
     <row r="15">
@@ -36113,28 +36113,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>112.6609702785789</v>
+        <v>133.0915324773892</v>
       </c>
       <c r="AB15" t="n">
-        <v>154.1477097863115</v>
+        <v>182.101706319501</v>
       </c>
       <c r="AC15" t="n">
-        <v>139.4360687120176</v>
+        <v>164.722175049769</v>
       </c>
       <c r="AD15" t="n">
-        <v>112660.9702785789</v>
+        <v>133091.5324773892</v>
       </c>
       <c r="AE15" t="n">
-        <v>154147.7097863115</v>
+        <v>182101.706319501</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.114757175577539e-06</v>
+        <v>8.745664769445432e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.025607638888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>139436.0687120176</v>
+        <v>164722.175049769</v>
       </c>
     </row>
   </sheetData>
@@ -36410,28 +36410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.44427167907233</v>
+        <v>84.80546946713824</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.64847205942846</v>
+        <v>116.034584678153</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.71079332255557</v>
+        <v>104.9604067720625</v>
       </c>
       <c r="AD2" t="n">
-        <v>68444.27167907234</v>
+        <v>84805.46946713823</v>
       </c>
       <c r="AE2" t="n">
-        <v>93648.47205942846</v>
+        <v>116034.584678153</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.788122628576445e-06</v>
+        <v>1.240661274711157e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.572482638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>84710.79332255558</v>
+        <v>104960.4067720625</v>
       </c>
     </row>
   </sheetData>
@@ -36707,28 +36707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.1841027439575</v>
+        <v>171.1482424686031</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.9108062109886</v>
+        <v>234.1725758730047</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.2133538288108</v>
+        <v>211.8234738950272</v>
       </c>
       <c r="AD2" t="n">
-        <v>143184.1027439575</v>
+        <v>171148.2424686031</v>
       </c>
       <c r="AE2" t="n">
-        <v>195910.8062109886</v>
+        <v>234172.5758730047</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.186221614327349e-06</v>
+        <v>7.712830901392409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.418836805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>177213.3538288108</v>
+        <v>211823.4738950272</v>
       </c>
     </row>
     <row r="3">
@@ -36813,28 +36813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.0752333248947</v>
+        <v>124.7464699290327</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.1368139440764</v>
+        <v>170.6836235826691</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.2851601220908</v>
+        <v>154.3938181039569</v>
       </c>
       <c r="AD3" t="n">
-        <v>106075.2333248947</v>
+        <v>124746.4699290327</v>
       </c>
       <c r="AE3" t="n">
-        <v>145136.8139440764</v>
+        <v>170683.6235826691</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.11418221134676e-06</v>
+        <v>9.42253569663553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.435763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>131285.1601220908</v>
+        <v>154393.8181039569</v>
       </c>
     </row>
     <row r="4">
@@ -36919,28 +36919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.12478749240856</v>
+        <v>117.7960240965465</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.6269073240445</v>
+        <v>161.1737169626371</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.6828656426339</v>
+        <v>145.7915236245</v>
       </c>
       <c r="AD4" t="n">
-        <v>99124.78749240856</v>
+        <v>117796.0240965465</v>
       </c>
       <c r="AE4" t="n">
-        <v>135626.9073240444</v>
+        <v>161173.7169626371</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.388107735030496e-06</v>
+        <v>9.927224993665851e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.210069444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>122682.8656426339</v>
+        <v>145791.5236245</v>
       </c>
     </row>
     <row r="5">
@@ -37025,28 +37025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.72789533419547</v>
+        <v>112.3991319383334</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.2426413791028</v>
+        <v>153.7894510176955</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.0033436755928</v>
+        <v>139.1120016574589</v>
       </c>
       <c r="AD5" t="n">
-        <v>93727.89533419546</v>
+        <v>112399.1319383334</v>
       </c>
       <c r="AE5" t="n">
-        <v>128242.6413791028</v>
+        <v>153789.4510176955</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.586889248211137e-06</v>
+        <v>1.029346652092707e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.060329861111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>116003.3436755928</v>
+        <v>139112.0016574589</v>
       </c>
     </row>
     <row r="6">
@@ -37131,28 +37131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.85331454951141</v>
+        <v>110.5245511536494</v>
       </c>
       <c r="AB6" t="n">
-        <v>125.6777572488319</v>
+        <v>151.2245668874246</v>
       </c>
       <c r="AC6" t="n">
-        <v>113.6832484868766</v>
+        <v>136.7919064687427</v>
       </c>
       <c r="AD6" t="n">
-        <v>91853.31454951141</v>
+        <v>110524.5511536494</v>
       </c>
       <c r="AE6" t="n">
-        <v>125677.7572488319</v>
+        <v>151224.5668874246</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.657748273414331e-06</v>
+        <v>1.04240194943672e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.008246527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>113683.2484868766</v>
+        <v>136791.9064687427</v>
       </c>
     </row>
     <row r="7">
@@ -37237,28 +37237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.24029695957114</v>
+        <v>110.9115335637091</v>
       </c>
       <c r="AB7" t="n">
-        <v>126.2072436547343</v>
+        <v>151.754053293327</v>
       </c>
       <c r="AC7" t="n">
-        <v>114.1622014533388</v>
+        <v>137.2708594352048</v>
       </c>
       <c r="AD7" t="n">
-        <v>92240.29695957113</v>
+        <v>110911.5335637091</v>
       </c>
       <c r="AE7" t="n">
-        <v>126207.2436547343</v>
+        <v>151754.053293327</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.651164027709609e-06</v>
+        <v>1.04118884658617e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.012586805555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>114162.2014533388</v>
+        <v>137270.8594352048</v>
       </c>
     </row>
   </sheetData>
@@ -37534,28 +37534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.5461225240848</v>
+        <v>217.602163900771</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.9771229052007</v>
+        <v>297.732880578839</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.3561483683696</v>
+        <v>269.3176723272048</v>
       </c>
       <c r="AD2" t="n">
-        <v>188546.1225240848</v>
+        <v>217602.163900771</v>
       </c>
       <c r="AE2" t="n">
-        <v>257977.1229052007</v>
+        <v>297732.880578839</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.592525014146337e-06</v>
+        <v>6.417783761473977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.078559027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>233356.1483683696</v>
+        <v>269317.6723272048</v>
       </c>
     </row>
     <row r="3">
@@ -37640,28 +37640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.6086179460519</v>
+        <v>152.664569814187</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.1267643010688</v>
+        <v>208.8823995051588</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.9855432871263</v>
+        <v>188.946956464735</v>
       </c>
       <c r="AD3" t="n">
-        <v>123608.6179460519</v>
+        <v>152664.569814187</v>
       </c>
       <c r="AE3" t="n">
-        <v>169126.7643010688</v>
+        <v>208882.3995051588</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.660733443414956e-06</v>
+        <v>8.326060164347902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.685329861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>152985.5432871263</v>
+        <v>188946.956464735</v>
       </c>
     </row>
     <row r="4">
@@ -37746,28 +37746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.9008413634397</v>
+        <v>132.2431184992236</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.4759119869832</v>
+        <v>180.9408688851924</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.732947755292</v>
+        <v>163.6721263109447</v>
       </c>
       <c r="AD4" t="n">
-        <v>112900.8413634397</v>
+        <v>132243.1184992236</v>
       </c>
       <c r="AE4" t="n">
-        <v>154475.9119869832</v>
+        <v>180940.8688851924</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.039375900021759e-06</v>
+        <v>9.002477280400521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.333767361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>139732.947755292</v>
+        <v>163672.1263109447</v>
       </c>
     </row>
     <row r="5">
@@ -37852,28 +37852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.2568244745865</v>
+        <v>127.5991016103704</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.121763200092</v>
+        <v>174.5867200983012</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.9852300105158</v>
+        <v>157.9244085661686</v>
       </c>
       <c r="AD5" t="n">
-        <v>108256.8244745865</v>
+        <v>127599.1016103704</v>
       </c>
       <c r="AE5" t="n">
-        <v>148121.763200092</v>
+        <v>174586.7200983012</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.194636413055055e-06</v>
+        <v>9.279838856289221e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.203559027777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>133985.2300105158</v>
+        <v>157924.4085661686</v>
       </c>
     </row>
     <row r="6">
@@ -37958,28 +37958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.0682688413141</v>
+        <v>123.410545977098</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.3907965966186</v>
+        <v>168.8557534948277</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.8012188162139</v>
+        <v>152.7403973718667</v>
       </c>
       <c r="AD6" t="n">
-        <v>104068.2688413141</v>
+        <v>123410.545977098</v>
       </c>
       <c r="AE6" t="n">
-        <v>142390.7965966186</v>
+        <v>168855.7534948277</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.331583631615209e-06</v>
+        <v>9.524485068074397e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.095052083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>128801.218816214</v>
+        <v>152740.3973718667</v>
       </c>
     </row>
     <row r="7">
@@ -38064,28 +38064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.5003357935462</v>
+        <v>120.8426129293301</v>
       </c>
       <c r="AB7" t="n">
-        <v>138.8772373114538</v>
+        <v>165.342194209663</v>
       </c>
       <c r="AC7" t="n">
-        <v>125.6229886979127</v>
+        <v>149.5621672535655</v>
       </c>
       <c r="AD7" t="n">
-        <v>101500.3357935462</v>
+        <v>120842.6129293301</v>
       </c>
       <c r="AE7" t="n">
-        <v>138877.2373114538</v>
+        <v>165342.194209663</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.384309820098324e-06</v>
+        <v>9.618676555932905e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.055989583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>125622.9886979127</v>
+        <v>149562.1672535655</v>
       </c>
     </row>
     <row r="8">
@@ -38170,28 +38170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>99.32472515943941</v>
+        <v>118.6670022952233</v>
       </c>
       <c r="AB8" t="n">
-        <v>135.9004708607033</v>
+        <v>162.3654277589124</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.9303206593029</v>
+        <v>146.8694992149557</v>
       </c>
       <c r="AD8" t="n">
-        <v>99324.7251594394</v>
+        <v>118667.0022952233</v>
       </c>
       <c r="AE8" t="n">
-        <v>135900.4708607032</v>
+        <v>162365.4277589124</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.448104483263009e-06</v>
+        <v>9.732641066051788e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.008246527777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>122930.3206593029</v>
+        <v>146869.4992149557</v>
       </c>
     </row>
     <row r="9">
@@ -38276,28 +38276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>99.32294732338787</v>
+        <v>118.6652244591718</v>
       </c>
       <c r="AB9" t="n">
-        <v>135.8980383469849</v>
+        <v>162.3629952451941</v>
       </c>
       <c r="AC9" t="n">
-        <v>122.9281203012798</v>
+        <v>146.8672988569326</v>
       </c>
       <c r="AD9" t="n">
-        <v>99322.94732338787</v>
+        <v>118665.2244591718</v>
       </c>
       <c r="AE9" t="n">
-        <v>135898.0383469849</v>
+        <v>162362.9952451941</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.443576470893278e-06</v>
+        <v>9.724552102399819e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>122928.1203012798</v>
+        <v>146867.2988569326</v>
       </c>
     </row>
   </sheetData>
